--- a/Docs/Análisis de sprints y tarjetas.xlsx
+++ b/Docs/Análisis de sprints y tarjetas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="408">
   <si>
     <t>id</t>
   </si>
@@ -60,6 +60,9 @@
     <t>Histograma de top 10 productos mas vendidos en reporte</t>
   </si>
   <si>
+    <t>✔</t>
+  </si>
+  <si>
     <t>48-2</t>
   </si>
   <si>
@@ -150,9 +153,6 @@
     <t>Ver predicciones por producto</t>
   </si>
   <si>
-    <t>✔</t>
-  </si>
-  <si>
     <t>42</t>
   </si>
   <si>
@@ -1240,15 +1240,6 @@
   </si>
   <si>
     <t>EN PROGRESO</t>
-  </si>
-  <si>
-    <t>tes 2</t>
-  </si>
-  <si>
-    <t>pastas 2</t>
-  </si>
-  <si>
-    <t>cereales 2</t>
   </si>
 </sst>
 </file>
@@ -1770,7 +1761,9 @@
         <f t="array" ref="K2">INDEX(Database!A:A, MATCH(1, (Database!C:C = C2) * (Database!D:D = "COMPLETADA"), 0))</f>
         <v>45632</v>
       </c>
-      <c r="L2" s="9"/>
+      <c r="L2" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="8">
@@ -1780,10 +1773,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" s="8">
         <v>6.0</v>
@@ -1811,7 +1804,9 @@
         <f t="array" ref="K3">INDEX(Database!A:A, MATCH(1, (Database!C:C = C3) * (Database!D:D = "COMPLETADA"), 0))</f>
         <v>45636</v>
       </c>
-      <c r="L3" s="8"/>
+      <c r="L3" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="8">
@@ -1821,10 +1816,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="8">
         <v>6.0</v>
@@ -1852,7 +1847,9 @@
         <f t="array" ref="K4">INDEX(Database!A:A, MATCH(1, (Database!C:C = C4) * (Database!D:D = "COMPLETADA"), 0))</f>
         <v>45629</v>
       </c>
-      <c r="L4" s="8"/>
+      <c r="L4" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="8">
@@ -1862,10 +1859,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" s="8">
         <v>6.0</v>
@@ -1893,7 +1890,9 @@
         <f t="array" ref="K5">INDEX(Database!A:A, MATCH(1, (Database!C:C = C5) * (Database!D:D = "COMPLETADA"), 0))</f>
         <v>45630</v>
       </c>
-      <c r="L5" s="8"/>
+      <c r="L5" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="8">
@@ -1903,10 +1902,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" s="8">
         <v>6.0</v>
@@ -1934,7 +1933,9 @@
         <f t="array" ref="K6">INDEX(Database!A:A, MATCH(1, (Database!C:C = C6) * (Database!D:D = "COMPLETADA"), 0))</f>
         <v>45629</v>
       </c>
-      <c r="L6" s="8"/>
+      <c r="L6" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="8">
@@ -1944,10 +1945,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7" s="8">
         <v>6.0</v>
@@ -1975,7 +1976,9 @@
         <f t="array" ref="K7">INDEX(Database!A:A, MATCH(1, (Database!C:C = C7) * (Database!D:D = "COMPLETADA"), 0))</f>
         <v>45629</v>
       </c>
-      <c r="L7" s="8"/>
+      <c r="L7" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="8">
@@ -1985,10 +1988,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" s="8">
         <v>6.0</v>
@@ -2016,7 +2019,9 @@
         <f t="array" ref="K8">INDEX(Database!A:A, MATCH(1, (Database!C:C = C8) * (Database!D:D = "COMPLETADA"), 0))</f>
         <v>45634</v>
       </c>
-      <c r="L8" s="8"/>
+      <c r="L8" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="8">
@@ -2026,10 +2031,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" s="8">
         <v>6.0</v>
@@ -2057,7 +2062,9 @@
         <f t="array" ref="K9">INDEX(Database!A:A, MATCH(1, (Database!C:C = C9) * (Database!D:D = "COMPLETADA"), 0))</f>
         <v>45635</v>
       </c>
-      <c r="L9" s="8"/>
+      <c r="L9" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="8">
@@ -2067,10 +2074,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E10" s="8">
         <v>6.0</v>
@@ -2098,7 +2105,9 @@
         <f t="array" ref="K10">INDEX(Database!A:A, MATCH(1, (Database!C:C = C10) * (Database!D:D = "COMPLETADA"), 0))</f>
         <v>45632</v>
       </c>
-      <c r="L10" s="8"/>
+      <c r="L10" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="8">
@@ -2108,10 +2117,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E11" s="8">
         <v>6.0</v>
@@ -2139,7 +2148,9 @@
         <f t="array" ref="K11">INDEX(Database!A:A, MATCH(1, (Database!C:C = C11) * (Database!D:D = "COMPLETADA"), 0))</f>
         <v>45630</v>
       </c>
-      <c r="L11" s="8"/>
+      <c r="L11" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="8">
@@ -2149,10 +2160,10 @@
         <v>6</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E12" s="8">
         <v>6.0</v>
@@ -2180,7 +2191,9 @@
         <f t="array" ref="K12">INDEX(Database!A:A, MATCH(1, (Database!C:C = C12) * (Database!D:D = "COMPLETADA"), 0))</f>
         <v>45630</v>
       </c>
-      <c r="L12" s="8"/>
+      <c r="L12" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="8">
@@ -2190,10 +2203,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E13" s="8">
         <v>6.0</v>
@@ -2221,7 +2234,9 @@
         <f t="array" ref="K13">INDEX(Database!A:A, MATCH(1, (Database!C:C = C13) * (Database!D:D = "COMPLETADA"), 0))</f>
         <v>45630</v>
       </c>
-      <c r="L13" s="8"/>
+      <c r="L13" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="8">
@@ -2231,10 +2246,10 @@
         <v>6</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E14" s="8">
         <v>6.0</v>
@@ -2262,7 +2277,9 @@
         <f t="array" ref="K14">INDEX(Database!A:A, MATCH(1, (Database!C:C = C14) * (Database!D:D = "COMPLETADA"), 0))</f>
         <v>45630</v>
       </c>
-      <c r="L14" s="8"/>
+      <c r="L14" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="8">
@@ -2272,10 +2289,10 @@
         <v>6</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E15" s="8">
         <v>6.0</v>
@@ -2303,7 +2320,9 @@
         <f t="array" ref="K15">INDEX(Database!A:A, MATCH(1, (Database!C:C = C15) * (Database!D:D = "COMPLETADA"), 0))</f>
         <v>45629</v>
       </c>
-      <c r="L15" s="8"/>
+      <c r="L15" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="8">
@@ -2313,10 +2332,10 @@
         <v>6</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E16" s="8">
         <v>6.0</v>
@@ -2344,7 +2363,9 @@
         <f t="array" ref="K16">INDEX(Database!A:A, MATCH(1, (Database!C:C = C16) * (Database!D:D = "COMPLETADA"), 0))</f>
         <v>45629</v>
       </c>
-      <c r="L16" s="8"/>
+      <c r="L16" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="8">
@@ -2354,10 +2375,10 @@
         <v>7</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17" s="8">
         <v>5.0</v>
@@ -2386,7 +2407,7 @@
         <v>45619</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18">
@@ -2429,7 +2450,7 @@
         <v>45621</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
@@ -2472,7 +2493,7 @@
         <v>45610</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
@@ -2515,7 +2536,7 @@
         <v>45609</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
@@ -2558,7 +2579,7 @@
         <v>45620</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
@@ -2601,7 +2622,7 @@
         <v>45617</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23">
@@ -2644,7 +2665,7 @@
         <v>45619</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24">
@@ -2687,7 +2708,7 @@
         <v>45620</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25">
@@ -2730,7 +2751,7 @@
         <v>45608</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
@@ -2773,7 +2794,7 @@
         <v>45619</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
@@ -2816,7 +2837,7 @@
         <v>45610</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
@@ -2859,7 +2880,7 @@
         <v>45608</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29">
@@ -2902,7 +2923,7 @@
         <v>45608</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30">
@@ -2945,7 +2966,7 @@
         <v>45605</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31">
@@ -2988,7 +3009,7 @@
         <v>45605</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3052,7 @@
         <v>45605</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33">
@@ -3074,7 +3095,7 @@
         <v>45591</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34">
@@ -3117,7 +3138,7 @@
         <v>45566</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35">
@@ -3160,7 +3181,7 @@
         <v>45595</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36">
@@ -3203,7 +3224,7 @@
         <v>45598</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37">
@@ -3284,7 +3305,7 @@
         <v>45598</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39">
@@ -3327,7 +3348,7 @@
         <v>45600</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40">
@@ -3408,7 +3429,7 @@
         <v>45599</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42">
@@ -3451,7 +3472,7 @@
         <v>45600</v>
       </c>
       <c r="L42" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43">
@@ -3494,7 +3515,7 @@
         <v>45600</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44">
@@ -3537,7 +3558,7 @@
         <v>45600</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45">
@@ -3580,7 +3601,7 @@
         <v>45600</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46">
@@ -3623,7 +3644,7 @@
         <v>45599</v>
       </c>
       <c r="L46" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47">
@@ -3666,7 +3687,7 @@
         <v>45599</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48">
@@ -3709,7 +3730,7 @@
         <v>45600</v>
       </c>
       <c r="L48" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49">
@@ -3752,7 +3773,7 @@
         <v>45598</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50">
@@ -3795,7 +3816,7 @@
         <v>45598</v>
       </c>
       <c r="L50" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51">
@@ -3838,7 +3859,7 @@
         <v>45598</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52">
@@ -3881,7 +3902,7 @@
         <v>45598</v>
       </c>
       <c r="L52" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53">
@@ -3924,7 +3945,7 @@
         <v>45598</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54">
@@ -3967,7 +3988,7 @@
         <v>45597</v>
       </c>
       <c r="L54" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55">
@@ -4010,7 +4031,7 @@
         <v>45596</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56">
@@ -4053,7 +4074,7 @@
         <v>45594</v>
       </c>
       <c r="L56" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57">
@@ -4096,7 +4117,7 @@
         <v>45593</v>
       </c>
       <c r="L57" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58">
@@ -4139,7 +4160,7 @@
         <v>45593</v>
       </c>
       <c r="L58" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59">
@@ -4182,7 +4203,7 @@
         <v>45591</v>
       </c>
       <c r="L59" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60">
@@ -4225,7 +4246,7 @@
         <v>45590</v>
       </c>
       <c r="L60" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61">
@@ -4268,7 +4289,7 @@
         <v>45590</v>
       </c>
       <c r="L61" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62">
@@ -4311,7 +4332,7 @@
         <v>45590</v>
       </c>
       <c r="L62" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63">
@@ -4354,7 +4375,7 @@
         <v>45586</v>
       </c>
       <c r="L63" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64">
@@ -4397,7 +4418,7 @@
         <v>45585</v>
       </c>
       <c r="L64" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65">
@@ -4478,7 +4499,7 @@
         <v>45585</v>
       </c>
       <c r="L66" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67">
@@ -4561,7 +4582,7 @@
         <v>45584</v>
       </c>
       <c r="L68" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69">
@@ -4604,7 +4625,7 @@
         <v>45578</v>
       </c>
       <c r="L69" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70">
@@ -4647,7 +4668,7 @@
         <v>45575</v>
       </c>
       <c r="L70" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71">
@@ -4690,7 +4711,7 @@
         <v>45575</v>
       </c>
       <c r="L71" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72">
@@ -4733,7 +4754,7 @@
         <v>45582</v>
       </c>
       <c r="L72" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73">
@@ -4776,7 +4797,7 @@
         <v>45582</v>
       </c>
       <c r="L73" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74">
@@ -4819,7 +4840,7 @@
         <v>45582</v>
       </c>
       <c r="L74" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75">
@@ -4900,7 +4921,7 @@
         <v>45573</v>
       </c>
       <c r="L76" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77">
@@ -4943,7 +4964,7 @@
         <v>45574</v>
       </c>
       <c r="L77" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78">
@@ -4986,7 +5007,7 @@
         <v>45580</v>
       </c>
       <c r="L78" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79">
@@ -5029,7 +5050,7 @@
         <v>45581</v>
       </c>
       <c r="L79" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80">
@@ -5072,7 +5093,7 @@
         <v>45581</v>
       </c>
       <c r="L80" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81">
@@ -5115,7 +5136,7 @@
         <v>45580</v>
       </c>
       <c r="L81" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82">
@@ -5158,7 +5179,7 @@
         <v>45580</v>
       </c>
       <c r="L82" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83">
@@ -5201,7 +5222,7 @@
         <v>45580</v>
       </c>
       <c r="L83" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84">
@@ -5244,7 +5265,7 @@
         <v>45580</v>
       </c>
       <c r="L84" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85">
@@ -5287,7 +5308,7 @@
         <v>45579</v>
       </c>
       <c r="L85" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86">
@@ -5330,7 +5351,7 @@
         <v>45579</v>
       </c>
       <c r="L86" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87">
@@ -5373,7 +5394,7 @@
         <v>45579</v>
       </c>
       <c r="L87" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88">
@@ -5416,7 +5437,7 @@
         <v>45579</v>
       </c>
       <c r="L88" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89">
@@ -5459,7 +5480,7 @@
         <v>45578</v>
       </c>
       <c r="L89" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90">
@@ -5502,7 +5523,7 @@
         <v>45578</v>
       </c>
       <c r="L90" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91">
@@ -5545,7 +5566,7 @@
         <v>45577</v>
       </c>
       <c r="L91" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92">
@@ -5588,7 +5609,7 @@
         <v>45577</v>
       </c>
       <c r="L92" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93">
@@ -5631,7 +5652,7 @@
         <v>45577</v>
       </c>
       <c r="L93" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94">
@@ -5674,7 +5695,7 @@
         <v>45575</v>
       </c>
       <c r="L94" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95">
@@ -5717,7 +5738,7 @@
         <v>45574</v>
       </c>
       <c r="L95" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96">
@@ -5760,7 +5781,7 @@
         <v>45574</v>
       </c>
       <c r="L96" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97">
@@ -5803,7 +5824,7 @@
         <v>45574</v>
       </c>
       <c r="L97" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98">
@@ -5846,7 +5867,7 @@
         <v>45577</v>
       </c>
       <c r="L98" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99">
@@ -5889,7 +5910,7 @@
         <v>45575</v>
       </c>
       <c r="L99" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100">
@@ -5932,7 +5953,7 @@
         <v>45573</v>
       </c>
       <c r="L100" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101">
@@ -5975,7 +5996,7 @@
         <v>45573</v>
       </c>
       <c r="L101" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102">
@@ -6018,7 +6039,7 @@
         <v>45573</v>
       </c>
       <c r="L102" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103">
@@ -6213,7 +6234,7 @@
         <v>45565</v>
       </c>
       <c r="L107" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="108">
@@ -6256,7 +6277,7 @@
         <v>45565</v>
       </c>
       <c r="L108" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109">
@@ -6339,7 +6360,7 @@
         <v>45571</v>
       </c>
       <c r="L110" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111">
@@ -6382,7 +6403,7 @@
         <v>45569</v>
       </c>
       <c r="L111" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="112">
@@ -6425,7 +6446,7 @@
         <v>45569</v>
       </c>
       <c r="L112" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="113">
@@ -6468,7 +6489,7 @@
         <v>45561</v>
       </c>
       <c r="L113" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114">
@@ -6511,7 +6532,7 @@
         <v>45568</v>
       </c>
       <c r="L114" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="115">
@@ -6554,7 +6575,7 @@
         <v>45568</v>
       </c>
       <c r="L115" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116">
@@ -6597,7 +6618,7 @@
         <v>45568</v>
       </c>
       <c r="L116" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="117">
@@ -6640,7 +6661,7 @@
         <v>45570</v>
       </c>
       <c r="L117" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="118">
@@ -6683,7 +6704,7 @@
         <v>45569</v>
       </c>
       <c r="L118" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="119">
@@ -6726,7 +6747,7 @@
         <v>45568</v>
       </c>
       <c r="L119" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="120">
@@ -6769,7 +6790,7 @@
         <v>45569</v>
       </c>
       <c r="L120" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="121">
@@ -6812,7 +6833,7 @@
         <v>45569</v>
       </c>
       <c r="L121" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="122">
@@ -6855,7 +6876,7 @@
         <v>45568</v>
       </c>
       <c r="L122" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="123">
@@ -6898,7 +6919,7 @@
         <v>45568</v>
       </c>
       <c r="L123" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="124">
@@ -6941,7 +6962,7 @@
         <v>45568</v>
       </c>
       <c r="L124" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="125">
@@ -6984,7 +7005,7 @@
         <v>45568</v>
       </c>
       <c r="L125" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="126">
@@ -7027,7 +7048,7 @@
         <v>45567</v>
       </c>
       <c r="L126" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="127">
@@ -7070,7 +7091,7 @@
         <v>45568</v>
       </c>
       <c r="L127" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="128">
@@ -7113,7 +7134,7 @@
         <v>45567</v>
       </c>
       <c r="L128" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="129">
@@ -7156,7 +7177,7 @@
         <v>45566</v>
       </c>
       <c r="L129" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="130">
@@ -7199,7 +7220,7 @@
         <v>45566</v>
       </c>
       <c r="L130" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="131">
@@ -7242,7 +7263,7 @@
         <v>45571</v>
       </c>
       <c r="L131" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="132">
@@ -7285,7 +7306,7 @@
         <v>45563</v>
       </c>
       <c r="L132" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="133">
@@ -7328,7 +7349,7 @@
         <v>45560</v>
       </c>
       <c r="L133" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="134">
@@ -7371,7 +7392,7 @@
         <v>45554</v>
       </c>
       <c r="L134" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="135">
@@ -7414,7 +7435,7 @@
         <v>45548</v>
       </c>
       <c r="L135" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="136">
@@ -7457,7 +7478,7 @@
         <v>45555</v>
       </c>
       <c r="L136" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="137">
@@ -7614,7 +7635,7 @@
         <v>45555</v>
       </c>
       <c r="L140" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="141">
@@ -7657,7 +7678,7 @@
         <v>45556</v>
       </c>
       <c r="L141" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="142">
@@ -7700,7 +7721,7 @@
         <v>45556</v>
       </c>
       <c r="L142" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="143">
@@ -7781,7 +7802,7 @@
         <v>45558</v>
       </c>
       <c r="L144" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="145">
@@ -7824,7 +7845,7 @@
         <v>45557</v>
       </c>
       <c r="L145" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="146">
@@ -7867,7 +7888,7 @@
         <v>45557</v>
       </c>
       <c r="L146" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="147">
@@ -7910,7 +7931,7 @@
         <v>45557</v>
       </c>
       <c r="L147" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="148">
@@ -7953,7 +7974,7 @@
         <v>45557</v>
       </c>
       <c r="L148" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="149">
@@ -7996,7 +8017,7 @@
         <v>45557</v>
       </c>
       <c r="L149" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="150">
@@ -8039,7 +8060,7 @@
         <v>45555</v>
       </c>
       <c r="L150" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="151">
@@ -8082,7 +8103,7 @@
         <v>45555</v>
       </c>
       <c r="L151" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="152">
@@ -8125,7 +8146,7 @@
         <v>45555</v>
       </c>
       <c r="L152" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="153">
@@ -8168,7 +8189,7 @@
         <v>45554</v>
       </c>
       <c r="L153" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="154">
@@ -8211,7 +8232,7 @@
         <v>45554</v>
       </c>
       <c r="L154" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="155">
@@ -8254,7 +8275,7 @@
         <v>45555</v>
       </c>
       <c r="L155" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="156">
@@ -8297,7 +8318,7 @@
         <v>45553</v>
       </c>
       <c r="L156" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="157">
@@ -8340,7 +8361,7 @@
         <v>45553</v>
       </c>
       <c r="L157" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="158">
@@ -8383,7 +8404,7 @@
         <v>45552</v>
       </c>
       <c r="L158" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="159">
@@ -8426,7 +8447,7 @@
         <v>45552</v>
       </c>
       <c r="L159" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="160">
@@ -8469,7 +8490,7 @@
         <v>45552</v>
       </c>
       <c r="L160" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="161">
@@ -8512,7 +8533,7 @@
         <v>45552</v>
       </c>
       <c r="L161" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="162">
@@ -8555,7 +8576,7 @@
         <v>45556</v>
       </c>
       <c r="L162" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="163">
@@ -8598,7 +8619,7 @@
         <v>45553</v>
       </c>
       <c r="L163" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="164">
@@ -8641,7 +8662,7 @@
         <v>45551</v>
       </c>
       <c r="L164" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="165">
@@ -8684,7 +8705,7 @@
         <v>45551</v>
       </c>
       <c r="L165" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="166">
@@ -8727,7 +8748,7 @@
         <v>45550</v>
       </c>
       <c r="L166" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="167">
@@ -8770,7 +8791,7 @@
         <v>45550</v>
       </c>
       <c r="L167" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="168">
@@ -8813,7 +8834,7 @@
         <v>45551</v>
       </c>
       <c r="L168" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="169">
@@ -8856,7 +8877,7 @@
         <v>45546</v>
       </c>
       <c r="L169" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="170">
@@ -8899,7 +8920,7 @@
         <v>45546</v>
       </c>
       <c r="L170" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="171">
@@ -8942,7 +8963,7 @@
         <v>45546</v>
       </c>
       <c r="L171" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="172">
@@ -8985,7 +9006,7 @@
         <v>45546</v>
       </c>
       <c r="L172" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="173">
@@ -9028,7 +9049,7 @@
         <v>45545</v>
       </c>
       <c r="L173" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="174">
@@ -9071,7 +9092,7 @@
         <v>45544</v>
       </c>
       <c r="L174" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="175">
@@ -9114,7 +9135,7 @@
         <v>45544</v>
       </c>
       <c r="L175" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="176">
@@ -9157,7 +9178,7 @@
         <v>45540</v>
       </c>
       <c r="L176" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="177">
@@ -9200,7 +9221,7 @@
         <v>45540</v>
       </c>
       <c r="L177" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="178">
@@ -9243,7 +9264,7 @@
         <v>45540</v>
       </c>
       <c r="L178" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="179">
@@ -9286,7 +9307,7 @@
         <v>45540</v>
       </c>
       <c r="L179" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="180">
@@ -9329,7 +9350,7 @@
         <v>45540</v>
       </c>
       <c r="L180" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="181">
@@ -9372,7 +9393,7 @@
         <v>45540</v>
       </c>
       <c r="L181" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="182">
@@ -9415,7 +9436,7 @@
         <v>45540</v>
       </c>
       <c r="L182" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="183">
@@ -9458,7 +9479,7 @@
         <v>45540</v>
       </c>
       <c r="L183" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="184">
@@ -9501,7 +9522,7 @@
         <v>45539</v>
       </c>
       <c r="L184" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="185">
@@ -9544,7 +9565,7 @@
         <v>45538</v>
       </c>
       <c r="L185" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="186">
@@ -9587,7 +9608,7 @@
         <v>45538</v>
       </c>
       <c r="L186" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="187">
@@ -9630,7 +9651,7 @@
         <v>45546</v>
       </c>
       <c r="L187" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="188">
@@ -9673,7 +9694,7 @@
         <v>45546</v>
       </c>
       <c r="L188" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="189">
@@ -9716,7 +9737,7 @@
         <v>45542</v>
       </c>
       <c r="L189" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="190">
@@ -9759,7 +9780,7 @@
         <v>45541</v>
       </c>
       <c r="L190" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="191">
@@ -9802,7 +9823,7 @@
         <v>45539</v>
       </c>
       <c r="L191" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="192">
@@ -9843,7 +9864,7 @@
         <v>45537</v>
       </c>
       <c r="L192" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="193">
@@ -9884,7 +9905,7 @@
         <v>45537</v>
       </c>
       <c r="L193" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="194">
@@ -9925,7 +9946,7 @@
         <v>45537</v>
       </c>
       <c r="L194" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="195">
@@ -9966,7 +9987,7 @@
         <v>45537</v>
       </c>
       <c r="L195" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="196">
@@ -10007,7 +10028,7 @@
         <v>45531</v>
       </c>
       <c r="L196" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="197">
@@ -10048,7 +10069,7 @@
         <v>45530</v>
       </c>
       <c r="L197" s="8" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="198">
@@ -17520,7 +17541,7 @@
       </c>
       <c r="H8" s="27">
         <f>COUNTIFS(Totals!E:E, A8, Totals!L:L, "✔") / COUNTIFS(Totals!E:E, A8)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -26498,7 +26519,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>406</v>
@@ -26515,7 +26536,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>406</v>
@@ -26532,7 +26553,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>407</v>
@@ -26549,7 +26570,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>406</v>
@@ -26566,7 +26587,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>406</v>
@@ -26600,7 +26621,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>407</v>
@@ -26617,7 +26638,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>406</v>
@@ -26634,7 +26655,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>407</v>
@@ -26651,7 +26672,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>406</v>
@@ -26668,7 +26689,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>406</v>
@@ -26685,22 +26706,13 @@
         <v>6</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>406</v>
       </c>
       <c r="E13" s="13">
         <v>10.0</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="O13" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="P13" s="8" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="14">
@@ -26711,7 +26723,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>406</v>
@@ -26728,7 +26740,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>406</v>
@@ -26745,7 +26757,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>406</v>
@@ -26762,7 +26774,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>406</v>
@@ -26779,7 +26791,7 @@
         <v>6</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>407</v>
@@ -26796,7 +26808,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>406</v>
@@ -26813,7 +26825,7 @@
         <v>6</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>406</v>
@@ -26949,7 +26961,7 @@
         <v>7</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>406</v>
@@ -26966,7 +26978,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>407</v>
@@ -26983,7 +26995,7 @@
         <v>7</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>407</v>
